--- a/biology/Microbiologie/Colwellia_polaris/Colwellia_polaris.xlsx
+++ b/biology/Microbiologie/Colwellia_polaris/Colwellia_polaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colwellia polaris est une des espèces du genre bactérien Colwellia. Ce sont des bacilles à Gram négatif de la famille des Colwelliaceae. Ces bactéries marines font partie de l'embranchement des Pseudomonadota.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Colwellia polaris a été décrite en 2008 suite à l'isolement de la souchs 537 lors d'une expédition de recherche chinoise dans l'Océan Arctique avec le Brise-glace Xue Long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Colwellia polaris a été décrite en 2008 suite à l'isolement de la souchs 537 lors d'une expédition de recherche chinoise dans l'Océan Arctique avec le Brise-glace Xue Long.
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de cette espèce est la suivante : po.la’ris M.L. masc./fem. adj. polaris, polaire, qui se réfère à son lieu d'isolement, l'Océan Arctique[2],[3].
-Phylogénie
-Dès sa description en 2004, l'espèce Colwellia polaris a été classée dans les Colwellia grâce à l'analyse de la séquence nucléotidique de l'ARNr 16S des la souche 537. Cette souche est présente sur le même nœud que l'espèce Colwellia aestuarii[2]. Les Colwellia font partie de la classe des Pseudomonadota (ex Proteobactéria)[4].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette espèce est la suivante : po.la’ris M.L. masc./fem. adj. polaris, polaire, qui se réfère à son lieu d'isolement, l'Océan Arctique,.
 </t>
         </is>
       </c>
@@ -573,13 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colwellia polaris a été décrite en 2008, comme étant une bactérie aérobies à Gram négatif. Cette espèce est formée des bacilles incurvés psychrotolérantes. Les bactéries de cette espèce sont catalases et oxydases positives[2].
-La souche type de cette espèce C. polaris est la souche 537 aussi dénommée CGMCC 1.6132 et JCM 13952 dans des banques de cultures bactériennes[1].
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès sa description en 2004, l'espèce Colwellia polaris a été classée dans les Colwellia grâce à l'analyse de la séquence nucléotidique de l'ARNr 16S des la souche 537. Cette souche est présente sur le même nœud que l'espèce Colwellia aestuarii. Les Colwellia font partie de la classe des Pseudomonadota (ex Proteobactéria).
 </t>
         </is>
       </c>
@@ -605,12 +627,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colwellia polaris a été décrite en 2008, comme étant une bactérie aérobies à Gram négatif. Cette espèce est formée des bacilles incurvés psychrotolérantes. Les bactéries de cette espèce sont catalases et oxydases positives.
+La souche type de cette espèce C. polaris est la souche 537 aussi dénommée CGMCC 1.6132 et JCM 13952 dans des banques de cultures bactériennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colwellia_polaris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colwellia_polaris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres Colwellia, C. polaris est une bactérie marine[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres Colwellia, C. polaris est une bactérie marine.
 </t>
         </is>
       </c>
